--- a/workingdir/valid_labels.xlsx
+++ b/workingdir/valid_labels.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raziqraif/agmip-submission/workingdir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B1F8596D-2BFA-984C-835D-6564EFE5C6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8EFA0BF2-85E1-8F41-BEFB-5C5788791E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13100" yWindow="0" windowWidth="20500" windowHeight="21000" xr2:uid="{A509A374-1B1F-A54B-98CF-FC1633FA5BA6}"/>
+    <workbookView xWindow="13100" yWindow="0" windowWidth="20500" windowHeight="21000" activeTab="3" xr2:uid="{A509A374-1B1F-A54B-98CF-FC1633FA5BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="3" r:id="rId1"/>
     <sheet name="Scenarios" sheetId="2" r:id="rId2"/>
     <sheet name="Regions" sheetId="4" r:id="rId3"/>
     <sheet name="Variables" sheetId="5" r:id="rId4"/>
-    <sheet name="Sectors" sheetId="6" r:id="rId5"/>
+    <sheet name="Items" sheetId="6" r:id="rId5"/>
     <sheet name="Units" sheetId="7" r:id="rId6"/>
     <sheet name="Years" sheetId="1" r:id="rId7"/>
   </sheets>
@@ -840,12 +840,6 @@
     <t>Technical mitigation options - N2O--MtCO2e</t>
   </si>
   <si>
-    <t>Core variable</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
     <t>Core sectors</t>
   </si>
   <si>
@@ -1345,6 +1339,12 @@
   </si>
   <si>
     <t>Index (2015 = 1)</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Core variables</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2DF9B6-F4FB-D842-BDF8-6CB16799B52C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3555,8 +3555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16333BCA-94F0-A54A-9CF5-CFDFDF8E5B84}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3598,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3632,7 +3632,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3649,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3666,7 +3666,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3683,7 +3683,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3700,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3717,7 +3717,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3734,7 +3734,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3768,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3785,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3802,7 +3802,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3819,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3836,7 +3836,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3853,7 +3853,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3870,7 +3870,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3904,7 +3904,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3921,7 +3921,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3938,7 +3938,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3955,7 +3955,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3972,7 +3972,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3989,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -4006,7 +4006,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4040,7 +4040,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4057,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -4074,7 +4074,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -4091,7 +4091,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -4108,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4125,7 +4125,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4142,7 +4142,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4176,7 +4176,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -4193,7 +4193,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -4210,7 +4210,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -4227,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -4244,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -4261,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4278,7 +4278,7 @@
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -4295,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4312,7 +4312,7 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4549,7 +4549,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E18" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4565,7 +4565,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>113</v>
@@ -4582,16 +4582,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4599,16 +4599,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4616,16 +4616,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4633,16 +4633,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4650,16 +4650,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4667,16 +4667,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4684,16 +4684,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4701,16 +4701,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4718,16 +4718,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4735,16 +4735,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4752,16 +4752,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -4769,16 +4769,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4786,16 +4786,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4803,16 +4803,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -4820,16 +4820,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4837,16 +4837,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4854,16 +4854,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -4871,16 +4871,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -4888,16 +4888,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -4905,16 +4905,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -4922,16 +4922,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4939,16 +4939,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4956,16 +4956,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -4973,16 +4973,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -4990,16 +4990,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -5007,16 +5007,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -5024,16 +5024,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -5041,16 +5041,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C29" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -5058,16 +5058,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C30" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -5078,13 +5078,13 @@
         <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -5092,16 +5092,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -5109,16 +5109,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -5126,16 +5126,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -5143,16 +5143,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -5160,16 +5160,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -5177,16 +5177,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C37" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -5194,16 +5194,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -5211,16 +5211,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C39" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -5228,16 +5228,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -5245,16 +5245,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -5262,16 +5262,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -5279,16 +5279,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -5296,16 +5296,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -5313,16 +5313,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -5330,7 +5330,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -5344,7 +5344,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -5358,7 +5358,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -5372,13 +5372,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -5386,13 +5386,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -5400,13 +5400,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -5414,13 +5414,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -5428,13 +5428,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -5442,13 +5442,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -5456,7 +5456,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -5470,7 +5470,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -5484,7 +5484,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -5498,7 +5498,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -5512,7 +5512,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -5526,7 +5526,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -5560,7 +5560,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>113</v>
@@ -5577,13 +5577,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5591,13 +5591,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5605,13 +5605,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5619,13 +5619,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5633,13 +5633,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5647,13 +5647,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5661,13 +5661,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5675,13 +5675,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5689,13 +5689,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5703,13 +5703,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5717,13 +5717,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5731,13 +5731,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5745,13 +5745,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5759,13 +5759,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5773,13 +5773,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5787,13 +5787,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5801,7 +5801,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -5815,7 +5815,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -5829,7 +5829,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -5843,7 +5843,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -5857,7 +5857,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -5871,7 +5871,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -5885,7 +5885,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -5899,7 +5899,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -5913,7 +5913,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -5941,7 +5941,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -5955,7 +5955,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -5969,7 +5969,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -5983,7 +5983,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -6011,7 +6011,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -6025,7 +6025,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -6039,7 +6039,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -6053,7 +6053,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -6067,7 +6067,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -6081,7 +6081,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -6095,7 +6095,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -6109,7 +6109,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -6123,7 +6123,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -6137,7 +6137,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -6151,7 +6151,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -6165,7 +6165,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -6179,7 +6179,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -6193,7 +6193,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -6207,7 +6207,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -6221,7 +6221,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -6235,7 +6235,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -6249,7 +6249,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -6263,7 +6263,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -6277,7 +6277,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -6291,7 +6291,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -6305,7 +6305,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -6319,7 +6319,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -6333,7 +6333,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -6347,7 +6347,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
